--- a/frontend-cemos/public/assets/content/estrategia/1-tratado-estrategia/script/m1.xlsx
+++ b/frontend-cemos/public/assets/content/estrategia/1-tratado-estrategia/script/m1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bibliografia_titulo</t>
+          <t>bibliografia_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -498,104 +498,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág 51</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>De acordo com a etimologia da palavra, qual é a distinção fundamental feita pelo Marechal de Puységur entre um simples estratagema e a estratégia?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>A estratégia refere-se ao exército em marcha, enquanto o estratagema refere-se ao exército em batalha.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>O estratagema é apenas um ardil ou embuste, enquanto a estratégia introduz a ação da inteligência do general num mundo dominado pela força.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>A estratégia é o domínio da força bruta, enquanto o estratagema é a gestão logística dos recursos.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>O estratagema é uma função tática dos oficiais subalternos, enquanto a estratégia é exclusiva do poder político.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>Conforme o **item 17**, a estratégia introduz a "ação da inteligência" (sollertia ducum facta), diferenciando-se do estratagema que era visto apenas como ardil.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Etimologicamente, o termo grego *strategos* resulta da combinação de *stratos* e *agein*. Qual é o significado mais provável desta combinação, segundo a análise do texto?</t>
+          <t>Na Atenas do século V a.C., como evoluiu a função do "estratego", especialmente sob figuras como Péricles?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O exército em batalha estática.</t>
+          <t>A função restringiu-se puramente ao comando tático dos hoplitas em campo de batalha, perdendo influência política.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A arte de enganar o inimigo.</t>
+          <t>O estratego tornou-se um cargo honorário, sem responsabilidades militares efetivas ou poder de decisão.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>O exército em movimento ou sendo conduzido adiante.</t>
+          <t>A função situou-se na interseção do político e do militar, exigindo uma análise das metas e meios para a potência da cidade.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A administração dos recursos da cidade.</t>
+          <t>Os estrategos foram substituídos por magistrados civis que não possuíam qualquer conhecimento do ofício militar.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -605,7 +597,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>*Agein* significa conduzir adiante ou avançar, sugerindo que a estratégia está intrinsecamente ligada ao movimento do exército (*stratos*).</t>
+          <t>Segundo o **item 18**, o estrategista situa-se na "interseção do político e do militar", definindo e executando uma estratégia coerente como fez Péricles.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -614,42 +606,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 51</t>
+          <t>Pág 53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No contexto romano e posteriormente no século XVIII, o marechal de Puységur observa uma distinção entre *estratégia* e *estratagema*. O que define o estratagema (*strategema*) neste contexto?</t>
+          <t>Como os romanos, em geral, abordavam o conceito teórico de estratégia antes da latinização dos termos gregos?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A organização logística das tropas.</t>
+          <t>Os romanos rejeitavam a guerra organizada, preferindo combates individuais ritualizados.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A ação da inteligência do general, incluindo ardis e habilidades para surpreender.</t>
+          <t>A abordagem dominante era organizacional e concreta, focada na ciência militar ou prefeitura militar, em vez de uma teoria abstrata de estratégia.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A força bruta aplicada no combate direto.</t>
+          <t>Eles adotaram imediatamente o termo *strategika* de Xenofonte para descrever todas as suas operações militares.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>O comando territorial de uma província romana.</t>
+          <t>A estratégia era vista exclusivamente como uma prática religiosa de adivinhação antes das batalhas.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -659,7 +651,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>O estratagema é associado à *sollertia ducum facta*, ou seja, a ação inteligente, o ardil e a habilidade do general para contornar obstáculos.</t>
+          <t>Conforme o **item 18**, a abordagem romana dominante é "organizacional e concreta", onde a *strategia* é a prefeitura militar e parte da ciência organizacional.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -668,52 +660,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 52</t>
+          <t>Pág 54</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Na Atenas do século V a.C., a função de estratego evoluiu de puramente militar para política. Qual figura histórica é citada como a encarnação do "bom estrategista" que uniu a hegemonia da cidade a uma estratégia coerente?</t>
+          <t>No contexto do pensamento chinês clássico, como o tratado de Sun Tzu se posiciona em relação ao conceito ocidental de estratégia?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alcibíades.</t>
+          <t>O tratado foca exclusivamente em táticas de cavalaria e ignora o planejamento de campanhas.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Péricles.</t>
+          <t>É uma tradução exata do termo grego *strategos*, focando apenas na figura do general.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Milíades.</t>
+          <t>Embora não haja termo equivalente exato, o tratado aborda o "método militar" e a arte do comando, destacando-se indiscutivelmente no campo da estratégia.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Brasidas.</t>
+          <t>Sun Tzu rejeita a importância do método e da análise, defendendo a força bruta como único meio de vitória.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Péricles é citado como o modelo de estratego que soube assegurar a hegemonia da cidade pela definição e execução de uma estratégia coerente e adaptada, unindo o político e o militar.</t>
+          <t>Conforme o **item 19**, o tratado de Sun Tzu insiste sobre os métodos e se destaca "sem qualquer contestação possível, no campo da estratégia", apesar da tradução livre.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -722,52 +714,52 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 54</t>
+          <t>Pág 55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diferentemente do pensamento ocidental, a China clássica não possuía um termo exato para "estratégia", mas utilizava o conceito de *bing-fa* (Sun Tzu). Como esse conceito é caracterizado no texto?</t>
+          <t>Quem é creditado no texto pela reintrodução e fixação do conceito de "estratégia" como sinônimo de "grande tática" ou "ciência do general" na língua francesa no século XVIII?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Restringe-se exclusivamente à tática de combate em campo aberto.</t>
+          <t>Napoleão Bonaparte, em suas memórias de Santa Helena.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>É uma noção ampla de método militar ou arte da guerra, onde as batalhas são apenas uma fração da importância da guerra.</t>
+          <t>O Marquês de Silva, em sua obra sobre a defesa de fortificações.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Foca unicamente na administração logística dos reinos combatentes.</t>
+          <t>Joly de Maizeroy, em seus comentários e na obra *Théorie de la guerre*.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>É um conceito religioso ligado aos rituais de sacrifício antes da guerra.</t>
+          <t>O Contra-Almirante Matthey, ao traduzir textos ingleses.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>O texto destaca que o *bing-fa* é um método amplo onde "as batalhas representam apenas um quinto da importância da guerra" e inclui a análise política.</t>
+          <t>De acordo com o **item 20**, a estratégia surge como sinônimo de grande tática sendo "forjada por Joly de Maiseroy" em 1771 e retomada em 1777.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -776,52 +768,52 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 55</t>
+          <t>Pág 56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Qual autor foi responsável por reintroduzir e forjar o termo "estratégia" (como sinônimo de ciência do general) na linguagem militar francesa no final do século XVIII?</t>
+          <t>Qual autor e obra são citados como o ponto de inflexão decisivo em 1799 para resgatar e impor o conceito de estratégia na Europa?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Guibert.</t>
+          <t>Dietrich von Bülow, com o livro *Geist des neuern Kriegs Systems*.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Joly de Maizeroy.</t>
+          <t>O Arquiduque Carlos da Áustria, com *Principes de strategie*.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Marechal de Saxe.</t>
+          <t>Clausewitz, com a publicação póstuma de *Da Guerra*.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Napoleão Bonaparte.</t>
+          <t>Guibert, com a obra *Défense du systéme de guerre moderne*.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Joly de Maizeroy forjou o termo em 1771 ao traduzir e comentar as Instituições Militares do Imperador Leão, o Filósofo.</t>
+          <t>Segundo o **item 20**, o ponto de inflexão ocorre em 1799 quando "Dietrich von Bülow resgata e impõe o conceito" com seu célebre livro.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -830,42 +822,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 56</t>
+          <t>Pág 57</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Em 1799, um autor alemão publicou *Geist des neuern Kriegs Systems*, obra decisiva para impor o conceito de estratégia na Europa. Quem foi este autor?</t>
+          <t>No século XVIII, qual fator logístico e organizacional impulsionou a necessidade de teorizar uma dimensão superior da arte da guerra (a estratégia)?</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Carl von Clausewitz.</t>
+          <t>A redução dos exércitos a pequenas unidades de elite que não necessitavam de suprimentos.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dietrich von Bülow.</t>
+          <t>A necessidade de conciliar a dispersão das divisões para abastecimento com a concentração necessária para a batalha.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gerhard von Scharnhorst.</t>
+          <t>O abandono das armas de fogo em favor do retorno ao combate de choque com armas brancas.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Arquiduque Carlos.</t>
+          <t>A invenção do rádio, que permitia o comando à distância sem necessidade de planejamento prévio.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -875,7 +867,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Dietrich von Bülow resgatou e impôs o conceito com seu livro célebre de 1799, que foi lido e traduzido em toda a Europa.</t>
+          <t>Conforme o **item 21**, um problema essencial passa a ser "conciliar a dispersão imposta pelo abastecimento... com a concentração em função de batalha".</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -884,7 +876,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -894,42 +886,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O "Modelo Prussiano" de organização militar, que incluía um Estado-Maior Geral e o ensino superior de guerra, surgiu como resposta a qual evento histórico?</t>
+          <t>Qual foi a inovação capital realizada por Scharnhorst na reorganização do sistema de guerra prussiano após a derrota de 1806?</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A vitória de Frederico II na Guerra dos Sete Anos.</t>
+          <t>A abolição do Estado-Maior para centralizar o poder apenas nas mãos do Rei.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A unificação da Alemanha sob Bismarck.</t>
+          <t>A criação de uma seção encarregada da instrução e preparação dos planos de operações, gênese do Estado-Maior Geral moderno.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A derrota total da Prússia para Napoleão em 1806 (Batalha de Iena).</t>
+          <t>A substituição de todo o treinamento militar pela leitura exclusiva de filósofos gregos.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A invasão da Rússia em 1812.</t>
+          <t>A eliminação da cartografia e da história militar do currículo dos oficiais.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A renovação prussiana, liderada por Scharnhorst e Gneisenau, foi uma resposta direta e imediata à derrota total sofrida em 1806.</t>
+          <t>De acordo com o **item 22**, a "inovação capital é a organização de uma seção encarregada da instrução... e da preparação dos planos de operações".</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -938,52 +930,52 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 60</t>
+          <t>Pág 59</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Qual é a definição de estratégia proposta por Carl von Clausewitz em sua obra *Da Guerra* (1832)?</t>
+          <t>O que caracterizava a mentalidade dos oficiais franceses e o ensino militar na França antes da derrota de 1870, em contraste com o modelo prussiano?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A arte de fazer a guerra sobre o mapa.</t>
+          <t>O domínio da "escola de inatos", onde se acreditava que o gênio militar era intrínseco e dispensava o estudo profundo da profissão.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A ciência dos movimentos de um exército fora do campo visual do inimigo.</t>
+          <t>Um foco excessivo em matemática e topografia, negligenciando a coragem individual.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A teoria relativa à prática dos combates ao serviço da guerra.</t>
+          <t>A adoção precoce e sistemática dos jogos de guerra (Kriegsspiel) em todas as unidades.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>A arte de dispor as tropas para a batalha decisiva.</t>
+          <t>A existência de um Estado-Maior Geral extremamente poderoso que retirava a autonomia dos generais em campo.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Clausewitz define a estratégia focando no uso do combate para os fins da guerra: "A estratégia é a teoria relativa à prática dos combates ao serviço da guerra".</t>
+          <t>Conforme o **item 23**, na França reinava o que Mordacq chamou de "escola de inatos", onde o estudo era visto como pedantismo.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -992,42 +984,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 61</t>
+          <t>Pág 60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Julian Corbett, no início do século XX, sistematizou uma distinção importante para a evolução do conceito de estratégia. Que distinção foi essa?</t>
+          <t>Como Clausewitz define a estratégia em sua obra *Da Guerra*, procurando superar o conflito entre "ciência" e "arte"?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Entre estratégia terrestre e estratégia naval.</t>
+          <t>A estratégia é a arte de mover tropas no mapa e enganar o inimigo com estratagemas.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Entre *major strategy* (grande estratégia) e *minor strategy*.</t>
+          <t>A estratégia é a teoria relativa à prática dos combates a serviço da guerra.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Entre estratégia de aniquilamento e estratégia de desgaste.</t>
+          <t>A estratégia é a ciência exata que garante a vitória através da superioridade numérica.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Entre estratégia direta e estratégia indireta.</t>
+          <t>A estratégia é a habilidade inata do general em motivar seus soldados para a morte.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1037,7 +1029,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Corbett distinguiu a *major strategy* (articulação da política e do militar/paz e guerra) da *minor strategy* (dimensão estritamente militar).</t>
+          <t>Segundo o **item 24**, Clausewitz propõe que "A estratégia é a teoria relativa à prática dos combates ao serviço da guerra".</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1046,42 +1038,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 62</t>
+          <t>Pág 61</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O General Ludendorff, em sua obra *Der totale Krieg* (1935), propôs uma inversão do axioma clássico de Clausewitz. Qual foi essa proposição?</t>
+          <t>Qual foi a contribuição de Julian Corbett para a evolução do conceito de estratégia no início do século XX?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A guerra deve ser evitada a todo custo pela diplomacia.</t>
+          <t>Ele limitou a estratégia exclusivamente às batalhas terrestres decisivas.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A política deve estar a serviço da guerra, sendo esta o fim último do Estado.</t>
+          <t>Ele sistematizou a distinção entre *major strategy* (grande estratégia) e *minor strategy* (estratégia militar/operacional).</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A economia é mais importante que a força militar na guerra moderna.</t>
+          <t>Ele defendeu que a estratégia naval não tinha relação com a política nacional.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>A tática deve ditar a estratégia, eliminando a necessidade de comando central.</t>
+          <t>Ele afirmou que a estratégia deixa de existir em tempos de paz.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1091,7 +1083,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Ludendorff inverteu a lógica, pregando que a política deveria servir à guerra, conceito ligado à ideia de Guerra Total.</t>
+          <t>Conforme o **item 25**, Julian Corbett sistematiza a distinção entre "major strategy e minor strategy", sendo a primeira a articulação da política e do militar.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1100,52 +1092,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 63</t>
+          <t>Pág 62</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Em 1937, o Almirante Castex propôs o conceito de "estratégia geral". O que esse conceito designava?</t>
+          <t>Na visão de Ludendorff sobre a "Guerra Total" (Der totale Krieg), como fica a relação entre política e guerra?</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A arte de conduzir exclusivamente as forças navais em águas profundas.</t>
+          <t>A guerra permanece uma continuação da política por outros meios, conforme Clausewitz.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A arte de conduzir, na guerra e na paz, o conjunto de forças (políticas, militares, econômicas) de uma nação.</t>
+          <t>A política deve ser abolida para dar lugar a uma anarquia militar.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A coordenação tática entre a artilharia e a infantaria no campo de batalha.</t>
+          <t>Ele inverte o axioma de Clausewitz, defendendo que a política deve estar a serviço da guerra.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A mobilização da indústria apenas após a declaração formal de guerra.</t>
+          <t>A guerra e a política são esferas totalmente separadas que nunca se influenciam.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Castex definiu estratégia geral como a coordenação de todas as estratégias particulares (política, econômica, militar, etc.) tanto na paz quanto na guerra.</t>
+          <t>De acordo com o **item 26**, Ludendorff "inverte o axioma de Clausewitz: a política deve estar de hoje em diante a serviço da guerra".</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1154,52 +1146,52 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 64</t>
+          <t>Pág 63</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A generalização do conceito de estratégia para a sociedade civil e o mundo dos negócios foi impulsionada, em 1944, por qual desenvolvimento teórico?</t>
+          <t>Como o Almirante Castex definiu o conceito de "estratégia geral" em 1937?</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Teoria dos Jogos, de von Neumann e Morgenstern.</t>
+          <t>Como a arte de coordenar apenas as forças navais em alto mar.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A Administração Científica, de Taylor.</t>
+          <t>Como a arte de conduzir o conjunto de forças da nação (políticas, militares, econômicas) na guerra e na paz.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A Teoria da Burocracia, de Max Weber.</t>
+          <t>Como a tática de mobilização industrial para a produção de munições.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A Geopolítica, de Haushofer.</t>
+          <t>Como a diplomacia secreta utilizada para evitar conflitos armados.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>A adoção do conceito pelos criadores da Teoria dos Jogos (von Neumann e Morgenstern) foi uma etapa decisiva para a saída da estratégia da esfera estritamente militar.</t>
+          <t>Segundo o **item 26**, Castex define estratégia geral como a arte de conduzir "o conjunto de forças e meios de luta de uma nação" coordenando estratégias particulares.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1208,42 +1200,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 65</t>
+          <t>Pág 64</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O texto critica a aplicação do termo "estratégia" a problemas como o buraco na camada de ozônio. Qual é o argumento central para essa crítica?</t>
+          <t>O que marca a "terceira extensão" da estratégia após a Segunda Guerra Mundial, exemplificada pela Teoria dos Jogos?</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Falta de recursos econômicos para resolver o problema.</t>
+          <t>A restrição do termo estratégia exclusivamente ao uso de armas nucleares.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A ausência de um "inimigo" ou de uma vontade antagônica dialética.</t>
+          <t>A aplicação do conceito de estratégia a qualquer atividade social, saindo da esfera exclusivamente estatal e bélica.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A natureza puramente técnica e não política da questão ambiental.</t>
+          <t>A proibição do uso da palavra estratégia em ambientes corporativos e civis.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A impossibilidade de usar forças armadas contra fenômenos naturais.</t>
+          <t>O retorno ao conceito puramente militar do século XVIII, rejeitando a dimensão econômica.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1253,7 +1245,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>O autor argumenta que sem a designação de um adversário (inimigo) e uma dialética de inteligências, não há estratégia, apenas gestão ou política.</t>
+          <t>Conforme o **item 27**, assiste-se a uma evolução que faz com que a estratégia saia da esfera bélica, passando a ser "aplicada a qualquer atividade social".</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1262,52 +1254,52 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 66</t>
+          <t>Pág 65</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O General Beaufre definiu estratégia como uma "dialética de vontades". O autor do texto propõe um ajuste a essa definição, preferindo o termo:</t>
+          <t>Para evitar a dissolução do conceito de estratégia, qual critério fundamental de Carl Schmitt o texto sugere resgatar?</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dialética das forças materiais.</t>
+          <t>A busca pelo lucro econômico máximo em qualquer transação.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dialética das paixões nacionais.</t>
+          <t>A designação do adversário (inimigo) como elemento central da política e da estratégia.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dialética das inteligências.</t>
+          <t>A gestão burocrática eficiente das instituições públicas.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dialética das economias.</t>
+          <t>A eliminação de qualquer conflito para atingir a paz perpétua.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>O autor prefere "dialética das inteligências" para destacar que a estratégia é o nível do discernimento e astúcia, enquanto a tática seria o domínio da vontade/execução.</t>
+          <t>De acordo com o **item 28**, é preciso reencontrar o critério, e Carl Schmitt "identifica como critério da política a designação do adversário".</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1316,7 +1308,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1326,42 +1318,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Segundo a distinção feita por Julien Freund e endossada pelo texto, qual é a relação entre estratégia, tática, inteligência e vontade?</t>
+          <t>Como o autor propõe ajustar a definição de estratégia do General Beaufre ("dialética de vontades")?</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A estratégia é da vontade; a tática é da inteligência.</t>
+          <t>Substituindo por "dialética das inteligências" para destacar o discernimento e a astúcia sobre a força pura.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A estratégia é da inteligência; a tática é da vontade.</t>
+          <t>Alterando para "choque de massas" para enfatizar o peso dos exércitos industriais.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ambas são domínios exclusivos da vontade.</t>
+          <t>Removendo a menção à força, definindo-a apenas como diplomacia coercitiva.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ambas são domínios exclusivos da inteligência.</t>
+          <t>Focando na "vontade divina" como determinante do resultado das batalhas.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A estratégia requer análise e plano (inteligência), enquanto a execução tática e o combate exigem tenacidade e caráter (vontade).</t>
+          <t>Conforme o **item 30**, é melhor falar de "dialética das inteligências, para destacar que a estratégia constitui o nível superior".</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1370,7 +1362,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1380,32 +1372,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sun Tzu e Sun Bin são citados para reforçar qual axioma fundamental da estratégia?</t>
+          <t>Utilizando o tríptico de Joseph de Maistre, qual é o papel da "percepção" na ação estratégica segundo o texto?</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A importância da superioridade numérica absoluta.</t>
+          <t>A percepção é irrelevante, pois apenas a força bruta decide o conflito.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A necessidade de conhecer o inimigo como constituinte da relação estratégica.</t>
+          <t>A percepção emana de uma cultura estratégica que inspira modelos e estereótipos, devendo ser submetida ao prisma da razão pelo verdadeiro estratego.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>O uso exclusivo da força bruta para aniquilar o oponente.</t>
+          <t>A percepção é a execução física das ordens, sem necessidade de análise intelectual.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A irrelevância dos planos frente ao acaso da batalha.</t>
+          <t>A percepção é a vontade cega que age independentemente das circunstâncias.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1415,7 +1407,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Os aforismos chineses citados (ex: "Aquele que conhece seu inimigo...") destacam que o inimigo é parte essencial da relação estratégica.</t>
+          <t>Segundo o **item 30**, a percepção "emana de uma formação e, de um modo mais global, de uma cultura estratégica, que inspira os modelos".</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1424,52 +1416,52 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 70</t>
+          <t>Pág 68</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>De acordo com a "Teoria da Lógica do Duelo" de Gabriel Tarde e a sociologia de Simmel, o que tende a acontecer em conflitos com múltiplos participantes?</t>
+          <t>Por que o texto critica a definição de estratégia baseada na superação de um "obstáculo" proposta por Thierry de Montbrial?</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O conflito se fragmenta em múltiplas pequenas guerras independentes.</t>
+          <t>Porque a noção de obstáculo é muito vaga, permitindo que ações como escalar o Everest sejam chamadas de estratégicas, diluindo o conceito.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ocorre uma redução à dualidade (amigo vs. inimigo), simplificando a situação para dois lados opostos.</t>
+          <t>Porque Montbrial ignora a importância da economia na estratégia.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Todos os participantes lutam contra todos simultaneamente até a exaustão.</t>
+          <t>Porque o conceito de obstáculo é exclusivamente militar e não se aplica à política.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>A diplomacia resolve o conflito antes que a violência ocorra.</t>
+          <t>Porque a estratégia não deve envolver esforço ou dificuldade, sendo algo natural.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A tendência sociológica e estratégica é a redução de tríades ou grupos múltiplos a duas forças opostas (lógica do duelo/amigo-inimigo).</t>
+          <t>Conforme o **item 31**, a crítica é que "a noção de obstáculo é vaga demais... o ato estratégico por excelência é a escalada do Everest... a degeneração do conceito está consumada".</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1478,42 +1470,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 71</t>
+          <t>Pág 69</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Clausewitz formula as "leis de ação recíproca" para explicar a dinâmica da guerra. O que essas leis descrevem teoricamente?</t>
+          <t>Em teoria pura, como o texto caracteriza o resultado de um conflito estratégico entre dois oponentes?</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A tendência da guerra à "ascensão aos extremos" devido à interação entre os adversários.</t>
+          <t>Como um jogo de soma zero, onde o que um ganha o outro perde.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A capacidade da diplomacia de interromper a guerra a qualquer momento.</t>
+          <t>Como uma cooperação mútua onde ambos sempre saem ganhando (win-win).</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A superioridade da defesa sobre o ataque em qualquer circunstância.</t>
+          <t>Como um processo indefinido sem vencedores ou vencidos.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>A necessidade de limitar a violência para poupar recursos econômicos.</t>
+          <t>Como uma negociação diplomática sem uso de força.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1523,7 +1515,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>As leis de ação recíproca (eu comando o inimigo, ele me comanda; colisão de forças vivas) levam, na teoria pura, à escalada ou ascensão aos extremos da violência.</t>
+          <t>De acordo com o **item 32**, a estratégia pura é "fundamentalmente, um jogo de soma zero: o que um ganha o outro perde".</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1532,42 +1524,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 71</t>
+          <t>Pág 70</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Na realidade, a "guerra absoluta" de Clausewitz raramente ocorre. Qual é um dos fatores citados que bloqueia a ascensão aos extremos?</t>
+          <t>Segundo a "Teoria da Lógica do Duelo" de Gabriel Tarde e a análise de Julien Freund, o que ocorre inevitavelmente em conflitos com múltiplos participantes?</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A falta de munição no início das guerras.</t>
+          <t>Eles mantêm suas independências, criando um caos de múltiplas frentes sem alianças.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A intervenção de terceiros (países neutros) e a resistência social ao sacrifício.</t>
+          <t>Ocorre uma redução característica a dois campos opostos (amigos e inimigos), simplificando a situação para um duelo.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>O acordo tácito entre generais para não causar baixas.</t>
+          <t>O conflito se dissolve naturalmente devido à complexidade das relações.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>A ausência de paixões políticas nos conflitos modernos.</t>
+          <t>Os participantes mais fracos sempre se rendem antes do início das hostilidades.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1577,7 +1569,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>O texto cita os "neutros", a política e a resistência social como fatores que atenuam a teoria pura e impedem a ascensão aos extremos na realidade.</t>
+          <t>Segundo o **item 32**, Freund conclui que todo conflito se caracteriza pela "redução característica dos grupos em amigos e inimigos", retomando a lógica do duelo.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1586,42 +1578,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 75</t>
+          <t>Pág 71</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cap. 1 - A estratégia enquanto conceito</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Thomas Schelling, em *The Strategy of Conflict* (1960), contestou a visão de soma zero pura. Qual ideia fundamental ele introduziu?</t>
+          <t>Qual é a consequência teórica das "leis de ação recíproca" formuladas por Clausewitz?</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Que a guerra é apenas caos e não pode ser teorizada.</t>
+          <t>A guerra tende a se tornar limitada e cerimonial.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Que existe sempre uma margem de interesse comum (cooperação), mesmo que seja apenas evitar a destruição mútua.</t>
+          <t>A ação recíproca conduz, conceitualmente, a uma ascensão aos extremos (violência absoluta).</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Que a comunicação com o inimigo é impossível durante o conflito.</t>
+          <t>Os adversários tendem a cooperar para evitar o derramamento de sangue.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Que a vitória militar total é o único objetivo racional.</t>
+          <t>A guerra se torna estática, sem vencedores, devido ao equilíbrio de forças.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1631,11 +1623,65 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Schelling mostrou que conflitos não são necessariamente soma zero e que existe interesse comum (ex: sobrevivência) e comunicação (ameaça/coação).</t>
+          <t>Conforme o **item 33**, Clausewitz enuncia que a ação recíproca "enquanto conceito, deve ir aos extremos".</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pág 72</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Segundo a análise de Clausewitz, qual fator pode atuar como um bloqueio à "ascensão aos extremos" na realidade da guerra?</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A inexistência de armas letais suficientes para destruir o inimigo.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A intervenção ou existência de terceiros (os neutros), que obriga os beligerantes a moderarem suas ações para não criar novos inimigos.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>A proibição total da guerra por organizações internacionais desde o século XIX.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A falta de vontade dos generais em vencer a guerra rapidamente.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 33**, os mecanismos que bloqueiam a ascensão incluem a "intervenção... de terceiros: os neutros, os quais é preciso levar em conta".</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
